--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1620632.51253312</v>
+        <v>-1621445.959745008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954291</v>
+        <v>2927877.345954293</v>
       </c>
     </row>
     <row r="8">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.3877072884263</v>
+        <v>301.1059717842872</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864969</v>
+        <v>231.4811711124921</v>
       </c>
       <c r="E11" t="n">
         <v>301.8407303564024</v>
@@ -1385,10 +1385,10 @@
         <v>322.4070376922379</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241313</v>
+        <v>61.3207076824131</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.08218037545167</v>
       </c>
       <c r="T11" t="n">
         <v>130.7597296842795</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
         <v>289.2127067351698</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898428</v>
+        <v>92.72268265898425</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438477</v>
+        <v>78.92267750438474</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196315</v>
+        <v>62.54404190196313</v>
       </c>
       <c r="E13" t="n">
-        <v>61.4917917577426</v>
+        <v>61.49179175774258</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592891</v>
+        <v>61.95871608592888</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033081</v>
+        <v>77.99174215033078</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366595</v>
+        <v>66.63306124366589</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227661</v>
+        <v>46.49600542227658</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.162769912717</v>
+        <v>48.16276991271697</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>127.9921064481895</v>
       </c>
       <c r="U13" t="n">
         <v>195.3080224141332</v>
@@ -1591,10 +1591,10 @@
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>117.9923684586715</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>41.0063967247799</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922378</v>
+        <v>322.4070376922379</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241306</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545163</v>
+        <v>84.08218037545167</v>
       </c>
       <c r="T14" t="n">
         <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V14" t="n">
         <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>42.90588462367896</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313685</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.03000628630191</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.7740033673485</v>
+        <v>62.54404190196313</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.49179175774258</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592884</v>
+        <v>61.95871608592888</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227654</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706116</v>
+        <v>140.8174128706117</v>
       </c>
       <c r="U16" t="n">
         <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586098</v>
+        <v>169.1308190586099</v>
       </c>
       <c r="W16" t="n">
         <v>194.2977051292231</v>
@@ -1844,13 +1844,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750571</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F17" t="n">
         <v>244.0827549329389</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283887</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130256</v>
@@ -1907,7 +1907,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6795130199279</v>
@@ -1941,7 +1941,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
-        <v>57.77334520310382</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.006104322177636</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T19" t="n">
-        <v>63.887621359171</v>
+        <v>219.8495741058294</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.18749723053</v>
       </c>
       <c r="D20" t="n">
         <v>203.1688012750562</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794432</v>
+        <v>197.3959288546029</v>
       </c>
       <c r="T22" t="n">
-        <v>219.8495741058294</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U22" t="n">
         <v>118.3782309026925</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864010986</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U23" t="n">
         <v>86.36645694118829</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2527,7 +2527,7 @@
         <v>41.43397610794432</v>
       </c>
       <c r="T25" t="n">
-        <v>219.8495741058294</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U25" t="n">
         <v>118.3782309026925</v>
@@ -2542,7 +2542,7 @@
         <v>63.01301561358554</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965322</v>
+        <v>209.8498361163118</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668828</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245645</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690925</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389979</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F26" t="n">
-        <v>307.5105275269751</v>
+        <v>307.5105275269752</v>
       </c>
       <c r="G26" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403574</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500856</v>
+        <v>47.81868876500867</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804724</v>
       </c>
       <c r="T26" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668751</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070619</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850187</v>
+        <v>256.4104295850188</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177653</v>
+        <v>275.7106878177654</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.1072856139641</v>
+        <v>287.1072856139642</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157971</v>
+        <v>79.22066374157983</v>
       </c>
       <c r="C28" t="n">
-        <v>65.4206585869802</v>
+        <v>65.42065858698031</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455859</v>
+        <v>49.0420229845587</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033803</v>
+        <v>47.98977284033815</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852434</v>
+        <v>48.45669716852446</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292624</v>
+        <v>64.48972323292635</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626148</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487214</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531254</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019806</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532073</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967287</v>
+        <v>181.8060034967288</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412054</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118187</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076218</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636895</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500856</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157971</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C31" t="n">
-        <v>65.4206585869802</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455859</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033803</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852434</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292624</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H31" t="n">
         <v>53.13104232626138</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668828</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245645</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690925</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269752</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403574</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500855</v>
+        <v>47.8186887650087</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804712</v>
+        <v>70.58016145804727</v>
       </c>
       <c r="T32" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668751</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352246</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070619</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850188</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177654</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139642</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.2206637415797</v>
+        <v>79.22066374157986</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698018</v>
+        <v>65.42065858698034</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455857</v>
+        <v>49.04202298455873</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033802</v>
+        <v>47.98977284033818</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852433</v>
+        <v>48.45669716852449</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292622</v>
+        <v>64.48972323292638</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626135</v>
+        <v>53.13104232626151</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487202</v>
+        <v>32.99398650487217</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531257</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019806</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532073</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967288</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412054</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118187</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076218</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636895</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D35" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112968</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995752</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830698</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y35" t="n">
         <v>237.0196808970466</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466226</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006274</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600878</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343969</v>
+        <v>3.043437609343911</v>
       </c>
       <c r="I37" t="n">
-        <v>1.601992861725742</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>19.51683636612777</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506307</v>
+        <v>54.77414398506301</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628968</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070423</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677197</v>
+        <v>67.22805124677191</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.5163481499653</v>
       </c>
       <c r="C38" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076471</v>
       </c>
       <c r="D38" t="n">
         <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220806</v>
       </c>
       <c r="F38" t="n">
         <v>257.4229228100577</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579159</v>
+        <v>258.817414057916</v>
       </c>
       <c r="H38" t="n">
         <v>171.3885593234399</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112976</v>
+        <v>20.49255674112982</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995761</v>
+        <v>67.17010604995767</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830706</v>
+        <v>99.70662481830712</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901444</v>
@@ -3566,7 +3566,7 @@
         <v>206.3228248681013</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008479</v>
+        <v>225.623083100848</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970467</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.73505188638756</v>
+        <v>29.1330590246624</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006283</v>
+        <v>15.33305387006288</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600886</v>
+        <v>14.40211851600892</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343998</v>
+        <v>3.043437609344053</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.5168363661262</v>
       </c>
       <c r="S40" t="n">
-        <v>54.7741439850631</v>
+        <v>54.77414398506315</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628977</v>
+        <v>77.22778923628982</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>105.541195424288</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949013</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070431</v>
+        <v>76.35318349070437</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.228051246772</v>
+        <v>67.22805124677205</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499651</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C41" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521748</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220804</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112963</v>
+        <v>20.49255674112968</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995747</v>
+        <v>67.17010604995752</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830692</v>
+        <v>99.70662481830698</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W41" t="n">
         <v>206.3228248681012</v>
@@ -3806,7 +3806,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.1330590246622</v>
+        <v>29.13305902466226</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006268</v>
+        <v>15.33305387006274</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600872</v>
+        <v>14.40211851600878</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343856</v>
+        <v>3.043437609343911</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.51683636612819</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.51683636612777</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506296</v>
+        <v>54.77414398506301</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628962</v>
+        <v>77.22778923628968</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798111</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242878</v>
@@ -3961,10 +3961,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070417</v>
+        <v>76.35318349070423</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677186</v>
+        <v>67.22805124677191</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112968</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995752</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830698</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466226</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006274</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600878</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343913</v>
+        <v>3.043437609343996</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.601992861726305</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506301</v>
+        <v>74.29098035119003</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628968</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070423</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677191</v>
+        <v>67.228051246772</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1555.43996511144</v>
+        <v>976.942093016757</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.402299715511</v>
+        <v>976.942093016757</v>
       </c>
       <c r="D11" t="n">
-        <v>980.4744282139991</v>
+        <v>743.122728256664</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913705</v>
+        <v>438.2331016340353</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913705</v>
+        <v>438.2331016340353</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547666</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="H11" t="n">
         <v>112.5694271974314</v>
@@ -5039,13 +5039,13 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938953</v>
+        <v>287.2391769275712</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436961</v>
+        <v>719.2973161773722</v>
       </c>
       <c r="M11" t="n">
         <v>1206.194903144587</v>
@@ -5066,25 +5066,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.465921365857</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2399.385386331231</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2234.439680823525</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>2234.439680823525</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W11" t="n">
-        <v>2234.439680823525</v>
+        <v>1876.869348623652</v>
       </c>
       <c r="X11" t="n">
-        <v>1942.305633616283</v>
+        <v>1584.735301416409</v>
       </c>
       <c r="Y11" t="n">
-        <v>1638.659871463385</v>
+        <v>1281.089539263512</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K12" t="n">
-        <v>137.8463925088447</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L12" t="n">
-        <v>565.6337791247895</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>935.080755788848</v>
       </c>
       <c r="N12" t="n">
         <v>1520.571119459616</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.2737993023603</v>
+        <v>511.2737993023602</v>
       </c>
       <c r="C13" t="n">
-        <v>431.553923035305</v>
+        <v>431.5539230353049</v>
       </c>
       <c r="D13" t="n">
-        <v>368.3781231343321</v>
+        <v>368.378123134332</v>
       </c>
       <c r="E13" t="n">
         <v>306.2652021669153</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639569</v>
+        <v>243.6806404639568</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383703</v>
+        <v>164.9011029383702</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002081</v>
+        <v>97.59498047002076</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413178</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K13" t="n">
         <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405359</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447745</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068811</v>
+        <v>957.3332466068813</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077497</v>
@@ -5227,22 +5227,22 @@
         <v>1259.89823519289</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212474</v>
+        <v>1130.613279184618</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911268</v>
+        <v>933.3324484632706</v>
       </c>
       <c r="V13" t="n">
-        <v>920.3775934911268</v>
+        <v>933.3324484632706</v>
       </c>
       <c r="W13" t="n">
-        <v>724.1172852797904</v>
+        <v>737.0721402519341</v>
       </c>
       <c r="X13" t="n">
-        <v>604.9330747154758</v>
+        <v>737.0721402519341</v>
       </c>
       <c r="Y13" t="n">
-        <v>604.9330747154758</v>
+        <v>604.9330747154756</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1555.439965111439</v>
+        <v>1034.006358430717</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.402299715511</v>
+        <v>741.9686930347891</v>
       </c>
       <c r="D14" t="n">
-        <v>980.4744282139992</v>
+        <v>741.9686930347891</v>
       </c>
       <c r="E14" t="n">
-        <v>675.5848015913704</v>
+        <v>700.5480902824862</v>
       </c>
       <c r="F14" t="n">
-        <v>675.5848015913704</v>
+        <v>376.292992863921</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547665</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974313</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731713</v>
@@ -5279,10 +5279,10 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K14" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773716</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M14" t="n">
         <v>1206.194903144586</v>
@@ -5315,13 +5315,13 @@
         <v>1902.425004661992</v>
       </c>
       <c r="W14" t="n">
-        <v>1902.425004661992</v>
+        <v>1629.786167790857</v>
       </c>
       <c r="X14" t="n">
-        <v>1859.085727264337</v>
+        <v>1337.652120583615</v>
       </c>
       <c r="Y14" t="n">
-        <v>1555.439965111439</v>
+        <v>1034.006358430717</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411996</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571443</v>
+        <v>753.9911953756168</v>
       </c>
       <c r="M15" t="n">
-        <v>935.0807557888472</v>
+        <v>935.0807557888471</v>
       </c>
       <c r="N15" t="n">
         <v>1520.571119459615</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>279.7826377396602</v>
+        <v>238.5026009986652</v>
       </c>
       <c r="C16" t="n">
-        <v>279.7826377396602</v>
+        <v>238.5026009986652</v>
       </c>
       <c r="D16" t="n">
-        <v>227.4856646413285</v>
+        <v>175.3268010976923</v>
       </c>
       <c r="E16" t="n">
-        <v>227.4856646413285</v>
+        <v>113.2138801302756</v>
       </c>
       <c r="F16" t="n">
-        <v>164.9011029383701</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9011029383701</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002072</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413172</v>
+        <v>96.79005415413184</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958641</v>
+        <v>246.2990519958643</v>
       </c>
       <c r="L16" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447744</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068811</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077497</v>
@@ -5458,28 +5458,28 @@
         <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.89823519289</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U16" t="n">
-        <v>920.3775934911279</v>
+        <v>969.0268560292258</v>
       </c>
       <c r="V16" t="n">
-        <v>749.5383823208149</v>
+        <v>798.1876448589128</v>
       </c>
       <c r="W16" t="n">
-        <v>553.2780741094784</v>
+        <v>601.9273366475763</v>
       </c>
       <c r="X16" t="n">
-        <v>411.9217032761186</v>
+        <v>460.5709658142165</v>
       </c>
       <c r="Y16" t="n">
-        <v>279.7826377396602</v>
+        <v>328.431900277758</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121842</v>
+        <v>931.9619764121853</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021218</v>
+        <v>704.7792099021229</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961229</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G17" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K17" t="n">
-        <v>358.6187566067425</v>
+        <v>287.2391769275712</v>
       </c>
       <c r="L17" t="n">
-        <v>790.6768958565434</v>
+        <v>719.2973161773722</v>
       </c>
       <c r="M17" t="n">
-        <v>1277.574482823758</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N17" t="n">
-        <v>1751.079753389619</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O17" t="n">
-        <v>2145.954364034585</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P17" t="n">
-        <v>2450.813248612012</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q17" t="n">
         <v>2531.465921365857</v>
@@ -5540,10 +5540,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U17" t="n">
         <v>2382.628765832485</v>
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779675</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881643</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9862327738867</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K18" t="n">
         <v>326.203808759672</v>
@@ -5604,13 +5604,13 @@
         <v>1311.335413027355</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204092</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
@@ -5625,13 +5625,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
         <v>1268.754082009649</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.1956669690493</v>
+        <v>53.71501199482643</v>
       </c>
       <c r="C19" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="D19" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="E19" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033742</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M19" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724613</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194017</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748515</v>
       </c>
       <c r="P19" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="Q19" t="n">
-        <v>777.8750201665663</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="R19" t="n">
-        <v>777.8750201665663</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="S19" t="n">
-        <v>736.0225190474306</v>
+        <v>741.0791900799335</v>
       </c>
       <c r="T19" t="n">
-        <v>671.4895681795811</v>
+        <v>519.0089132053583</v>
       </c>
       <c r="U19" t="n">
-        <v>551.9155975708007</v>
+        <v>399.434942596578</v>
       </c>
       <c r="V19" t="n">
-        <v>458.7832465130541</v>
+        <v>306.3025915388314</v>
       </c>
       <c r="W19" t="n">
-        <v>340.2297984142839</v>
+        <v>187.7491434400612</v>
       </c>
       <c r="X19" t="n">
-        <v>276.5802876934904</v>
+        <v>124.0996327192677</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.1480822695983</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084494</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D20" t="n">
-        <v>931.961976412186</v>
+        <v>931.9619764121846</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021236</v>
+        <v>704.7792099021223</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961245</v>
+        <v>458.2309725961234</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J20" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P20" t="n">
         <v>2379.433668932841</v>
@@ -5780,19 +5780,19 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112258</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.32046835369</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259014</v>
       </c>
       <c r="Y20" t="n">
         <v>1577.954379218682</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C21" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G21" t="n">
         <v>206.1118778881637</v>
@@ -5826,25 +5826,25 @@
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411996</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2082694571443</v>
+        <v>753.9911953756168</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.552487108883</v>
+        <v>1311.335413027355</v>
       </c>
       <c r="N21" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P21" t="n">
         <v>2337.264736621381</v>
@@ -5856,19 +5856,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T21" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482638</v>
+        <v>53.71501199482637</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033743</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033743</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033743</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033743</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M22" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724612</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194017</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748515</v>
       </c>
       <c r="P22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="R22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799333</v>
+        <v>583.5418640732076</v>
       </c>
       <c r="T22" t="n">
         <v>519.0089132053581</v>
@@ -5969,67 +5969,67 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121855</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021225</v>
+        <v>704.7792099021232</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961236</v>
+        <v>458.2309725961243</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J23" t="n">
-        <v>50.62931842731712</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>358.6187566067425</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L23" t="n">
-        <v>790.6768958565434</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M23" t="n">
-        <v>1277.574482823758</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N23" t="n">
-        <v>1751.079753389619</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O23" t="n">
-        <v>2145.954364034585</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P23" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149683</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227623</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112256</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6054,28 +6054,28 @@
         <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881636</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K24" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L24" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.552487108883</v>
+        <v>935.0807557888471</v>
       </c>
       <c r="N24" t="n">
         <v>1520.571119459615</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.71501199482636</v>
+        <v>53.71501199482637</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70199584033741</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70199584033741</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033741</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033741</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M25" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724612</v>
       </c>
       <c r="N25" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194017</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748515</v>
       </c>
       <c r="P25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="R25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799333</v>
+        <v>741.0791900799335</v>
       </c>
       <c r="T25" t="n">
-        <v>519.0089132053581</v>
+        <v>676.5462392120839</v>
       </c>
       <c r="U25" t="n">
-        <v>399.4349425965778</v>
+        <v>556.9722686033036</v>
       </c>
       <c r="V25" t="n">
-        <v>306.3025915388312</v>
+        <v>463.839917545557</v>
       </c>
       <c r="W25" t="n">
-        <v>187.749143440061</v>
+        <v>345.2864694467869</v>
       </c>
       <c r="X25" t="n">
-        <v>124.0996327192676</v>
+        <v>281.6369587259934</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.66742729537542</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967895</v>
+        <v>964.5773097967889</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250975</v>
+        <v>653.9606153250968</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353669</v>
+        <v>341.935343835366</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249039</v>
+        <v>118.2220468249041</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550346</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610937</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321548</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630806</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019168</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.365573339992</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083148</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
         <v>3154.974523052696</v>
@@ -6263,7 +6263,7 @@
         <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
@@ -6300,28 +6300,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J27" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155455</v>
+        <v>345.4948313340179</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314902</v>
+        <v>773.2822179499626</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683229</v>
+        <v>1330.626435601701</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O27" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485934</v>
+        <v>435.0960012485939</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284114</v>
+        <v>369.0145279284117</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743118</v>
+        <v>319.477130974312</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537683</v>
+        <v>271.0026129537684</v>
       </c>
       <c r="F28" t="n">
         <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189698</v>
+        <v>156.9153196189696</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974934</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266728</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995731</v>
+        <v>529.976731599575</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320421</v>
+        <v>786.949472832044</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.459262822381</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021228</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688842</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.333871362881</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771656</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486828</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453285</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678811</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553702</v>
+        <v>943.9574094553715</v>
       </c>
       <c r="W28" t="n">
-        <v>761.335504190907</v>
+        <v>761.3355041909082</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044205</v>
+        <v>633.6175363044215</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F29" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
         <v>341.9353438353664</v>
@@ -6461,13 +6461,13 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>187.3366846949154</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K29" t="n">
-        <v>596.8002826177376</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.332581610935</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
         <v>1718.704328321546</v>
@@ -6482,10 +6482,10 @@
         <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
         <v>3424.723957701281</v>
@@ -6494,10 +6494,10 @@
         <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
         <v>2662.529311242513</v>
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6546,19 +6546,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314902</v>
+        <v>860.4992920314903</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683229</v>
+        <v>954.3717783631929</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O30" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485936</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284116</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D31" t="n">
-        <v>319.477130974312</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537686</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976834</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.91531961897</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
@@ -6619,19 +6619,19 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
@@ -6655,16 +6655,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909074</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148357</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472543</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967875</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250954</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353658</v>
+        <v>341.9353438353646</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249039</v>
+        <v>118.2220468249041</v>
       </c>
       <c r="I32" t="n">
         <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L32" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P32" t="n">
         <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U32" t="n">
         <v>3154.974523052695</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W32" t="n">
         <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6783,19 +6783,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314902</v>
+        <v>860.4992920314903</v>
       </c>
       <c r="M33" t="n">
-        <v>954.3717783631935</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485941</v>
       </c>
       <c r="C34" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284119</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743114</v>
+        <v>319.4771309743122</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537679</v>
+        <v>271.0026129537686</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976827</v>
+        <v>222.0564541976832</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189697</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974934</v>
       </c>
       <c r="I34" t="n">
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567078</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266706</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995753</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320442</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.459262822381</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021225</v>
+        <v>1277.215367021228</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688842</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.333871362881</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771657</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486828</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453285</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678812</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553701</v>
+        <v>943.9574094553717</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909069</v>
+        <v>761.3355041909084</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044217</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148364</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018761</v>
+        <v>989.711620901877</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442191</v>
+        <v>749.05393734422</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906263</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137831</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932086</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430096</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
@@ -6968,19 +6968,19 @@
         <v>2635.416592098073</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W35" t="n">
         <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J36" t="n">
         <v>141.6963688081575</v>
@@ -7023,16 +7023,16 @@
         <v>845.0582457564572</v>
       </c>
       <c r="M36" t="n">
-        <v>938.9307320881596</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.421095758928</v>
+        <v>1987.892827078964</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123563</v>
+        <v>2447.9938934436</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.20717640051004</v>
+        <v>107.3029779201079</v>
       </c>
       <c r="C37" t="n">
-        <v>73.7192431984264</v>
+        <v>91.8150447180243</v>
       </c>
       <c r="D37" t="n">
-        <v>73.7192431984264</v>
+        <v>91.8150447180243</v>
       </c>
       <c r="E37" t="n">
-        <v>73.7192431984264</v>
+        <v>91.8150447180243</v>
       </c>
       <c r="F37" t="n">
-        <v>73.7192431984264</v>
+        <v>91.8150447180243</v>
       </c>
       <c r="G37" t="n">
-        <v>59.17164873781141</v>
+        <v>77.26745025740937</v>
       </c>
       <c r="H37" t="n">
-        <v>56.09746933443366</v>
+        <v>74.19327085403168</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>74.19327085403168</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K37" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L37" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R37" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S37" t="n">
-        <v>713.3584478120541</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T37" t="n">
-        <v>635.3505798966099</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U37" t="n">
-        <v>502.301692240235</v>
+        <v>520.3974937598325</v>
       </c>
       <c r="V37" t="n">
-        <v>395.6944241348936</v>
+        <v>413.7902256544912</v>
       </c>
       <c r="W37" t="n">
-        <v>263.6660589885288</v>
+        <v>281.7618605081265</v>
       </c>
       <c r="X37" t="n">
-        <v>186.5416312201406</v>
+        <v>204.6374327397384</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.6345087486538</v>
+        <v>136.7303102682516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018757</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442192</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189935</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137831</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932083</v>
+        <v>479.7379918932086</v>
       </c>
       <c r="L38" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430096</v>
       </c>
       <c r="M38" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N38" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P38" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081354</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J39" t="n">
         <v>141.6963688081575</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270633</v>
+        <v>87.58900179270651</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062266</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062266</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062266</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062266</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000764</v>
+        <v>57.55347413000772</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K40" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L40" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717738</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O40" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R40" t="n">
-        <v>768.6858659787842</v>
+        <v>767.0676913709817</v>
       </c>
       <c r="S40" t="n">
-        <v>713.3584478120539</v>
+        <v>711.7402732042513</v>
       </c>
       <c r="T40" t="n">
-        <v>635.3505798966097</v>
+        <v>633.7324052888069</v>
       </c>
       <c r="U40" t="n">
-        <v>502.3016922402347</v>
+        <v>500.6835176324319</v>
       </c>
       <c r="V40" t="n">
-        <v>395.6944241348933</v>
+        <v>394.0762495270905</v>
       </c>
       <c r="W40" t="n">
-        <v>263.6660589885284</v>
+        <v>262.0478843807255</v>
       </c>
       <c r="X40" t="n">
-        <v>186.5416312201402</v>
+        <v>184.9234566123373</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.6345087486534</v>
+        <v>117.0163341408503</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018768</v>
+        <v>989.711620901877</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442199</v>
+        <v>749.05393734422</v>
       </c>
       <c r="F41" t="n">
         <v>489.0307829906264</v>
@@ -7403,55 +7403,55 @@
         <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472663031</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137831</v>
       </c>
       <c r="K41" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932086</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430089</v>
+        <v>911.7961311430096</v>
       </c>
       <c r="M41" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N41" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O41" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P41" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W41" t="n">
         <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y41" t="n">
         <v>1676.128774851157</v>
@@ -7485,7 +7485,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J42" t="n">
         <v>141.6963688081575</v>
@@ -7497,7 +7497,7 @@
         <v>845.0582457564572</v>
       </c>
       <c r="M42" t="n">
-        <v>938.9307320881596</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N42" t="n">
         <v>1524.421095758928</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201081</v>
+        <v>87.58900179270609</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802458</v>
+        <v>72.1010685906225</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802458</v>
+        <v>72.1010685906225</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802458</v>
+        <v>72.1010685906225</v>
       </c>
       <c r="F43" t="n">
-        <v>91.81504471802458</v>
+        <v>72.1010685906225</v>
       </c>
       <c r="G43" t="n">
-        <v>77.26745025740971</v>
+        <v>57.55347413000757</v>
       </c>
       <c r="H43" t="n">
-        <v>74.19327085403208</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I43" t="n">
-        <v>74.19327085403208</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K43" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L43" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717738</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O43" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983816</v>
+        <v>767.0676913709801</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316513</v>
+        <v>711.7402732042498</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162073</v>
+        <v>633.7324052888057</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598324</v>
+        <v>500.6835176324307</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544912</v>
+        <v>394.0762495270894</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081265</v>
+        <v>262.0478843807247</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397385</v>
+        <v>184.9234566123366</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682517</v>
+        <v>117.0163341408498</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7628,22 @@
         <v>1208.407549338417</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018768</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442195</v>
+        <v>749.0539373442193</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906262</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J44" t="n">
         <v>171.7485537137827</v>
@@ -7652,10 +7652,10 @@
         <v>479.7379918932081</v>
       </c>
       <c r="L44" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N44" t="n">
         <v>1872.198988676085</v>
@@ -7676,7 +7676,7 @@
         <v>2703.265184067727</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U44" t="n">
         <v>2534.702829655339</v>
@@ -7685,7 +7685,7 @@
         <v>2351.851591887516</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081354</v>
       </c>
       <c r="X44" t="n">
         <v>1915.542593939083</v>
@@ -7722,19 +7722,19 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J45" t="n">
-        <v>54.47929472662988</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K45" t="n">
-        <v>54.47929472662988</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L45" t="n">
-        <v>381.5865144364213</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M45" t="n">
-        <v>938.9307320881596</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N45" t="n">
         <v>1524.421095758928</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270609</v>
+        <v>87.58900179270634</v>
       </c>
       <c r="C46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="D46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="E46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="F46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000757</v>
+        <v>57.55347413000766</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K46" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L46" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q46" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R46" t="n">
-        <v>767.0676913709801</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S46" t="n">
-        <v>711.7402732042498</v>
+        <v>711.7402732042506</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888057</v>
+        <v>633.7324052888064</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324307</v>
+        <v>500.6835176324313</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270894</v>
+        <v>394.07624952709</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807247</v>
+        <v>262.0478843807252</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123366</v>
+        <v>184.923456612337</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408498</v>
+        <v>117.0163341408501</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>349.2884508079976</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>393.8132110494462</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8769,13 +8769,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>415.6213899581518</v>
+        <v>137.2633189153688</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8930,10 +8930,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>352.4051964243486</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494448</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2633189153682</v>
+        <v>225.3613735431736</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9164,7 +9164,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>349.2884508079976</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.9089023233596</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.82029131472584</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>243.0898773147943</v>
+        <v>439.2526901880018</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339639</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,10 +9407,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494462</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443417</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>154.9918226869888</v>
+        <v>243.0898773147938</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>381.3518698822113</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.9089023233586</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153678</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869879</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869881</v>
+        <v>243.0898773147933</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153678</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869881</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>137.2633189153686</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236963</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>137.2633189153678</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>142.0111481454934</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339639</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236963</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869874</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11145,10 +11145,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>137.2633189153678</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>380.3953106054532</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7182644958609</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>48.61742167400479</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.0821803754517</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>12.82530642242214</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>21.95043866635475</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>301.1059717842872</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.8343336316225</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241309</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>246.3068221114908</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898421</v>
+        <v>3.692676372682342</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438469</v>
+        <v>78.92267750438474</v>
       </c>
       <c r="D16" t="n">
-        <v>10.77003853461459</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774253</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033074</v>
+        <v>77.99174215033078</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.63306124366591</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271697</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.578528186014946e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.461769759898706e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229762.9894521913</v>
+        <v>229762.9894521912</v>
       </c>
       <c r="C2" t="n">
         <v>229762.9894521913</v>
@@ -26323,10 +26323,10 @@
         <v>200786.0394359298</v>
       </c>
       <c r="F2" t="n">
-        <v>200786.0394359299</v>
+        <v>200786.0394359298</v>
       </c>
       <c r="G2" t="n">
-        <v>230287.2181482544</v>
+        <v>230287.2181482545</v>
       </c>
       <c r="H2" t="n">
         <v>230287.2181482544</v>
@@ -26335,22 +26335,22 @@
         <v>230287.2181482545</v>
       </c>
       <c r="J2" t="n">
-        <v>230287.2181482546</v>
+        <v>230287.2181482547</v>
       </c>
       <c r="K2" t="n">
         <v>230287.2181482546</v>
       </c>
       <c r="L2" t="n">
-        <v>230287.2181482547</v>
+        <v>230287.2181482541</v>
       </c>
       <c r="M2" t="n">
-        <v>230287.2181482546</v>
+        <v>230287.2181482542</v>
       </c>
       <c r="N2" t="n">
-        <v>230287.2181482546</v>
+        <v>230287.2181482543</v>
       </c>
       <c r="O2" t="n">
-        <v>230287.2181482541</v>
+        <v>230287.2181482545</v>
       </c>
       <c r="P2" t="n">
         <v>230287.2181482546</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>61543.83320915252</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613918</v>
+        <v>83547.74167613915</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915252</v>
+        <v>61543.83320915244</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415065</v>
+        <v>149683.3109415066</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561259</v>
+        <v>20455.48779561252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>300146.3013995251</v>
       </c>
       <c r="J4" t="n">
-        <v>298009.3859165158</v>
+        <v>298009.3859165157</v>
       </c>
       <c r="K4" t="n">
-        <v>298009.3859165158</v>
+        <v>298009.3859165157</v>
       </c>
       <c r="L4" t="n">
-        <v>298009.3859165158</v>
+        <v>298009.3859165157</v>
       </c>
       <c r="M4" t="n">
         <v>296992.7137695695</v>
@@ -26454,7 +26454,7 @@
         <v>296992.7137695695</v>
       </c>
       <c r="O4" t="n">
-        <v>296992.7137695696</v>
+        <v>296992.7137695695</v>
       </c>
       <c r="P4" t="n">
         <v>296992.7137695695</v>
@@ -26482,31 +26482,31 @@
         <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
+        <v>55349.24364233076</v>
+      </c>
+      <c r="H5" t="n">
         <v>55349.24364233075</v>
       </c>
-      <c r="H5" t="n">
-        <v>55349.24364233076</v>
-      </c>
       <c r="I5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462553</v>
       </c>
       <c r="M5" t="n">
+        <v>57153.73105654696</v>
+      </c>
+      <c r="N5" t="n">
         <v>57153.73105654695</v>
       </c>
-      <c r="N5" t="n">
-        <v>57153.73105654694</v>
-      </c>
       <c r="O5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654696</v>
       </c>
       <c r="P5" t="n">
         <v>57153.73105654695</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200934.7679515248</v>
+        <v>-200939.1365239921</v>
       </c>
       <c r="C6" t="n">
-        <v>-200934.7679515248</v>
+        <v>-200939.136523992</v>
       </c>
       <c r="D6" t="n">
-        <v>-200934.7679515248</v>
+        <v>-200939.136523992</v>
       </c>
       <c r="E6" t="n">
-        <v>-460145.8739202102</v>
+        <v>-460391.7170761464</v>
       </c>
       <c r="F6" t="n">
-        <v>-92315.53440523872</v>
+        <v>-92561.37756117476</v>
       </c>
       <c r="G6" t="n">
-        <v>-186752.160102754</v>
+        <v>-186752.1601027539</v>
       </c>
       <c r="H6" t="n">
-        <v>-125208.3268936015</v>
+        <v>-125208.3268936014</v>
       </c>
       <c r="I6" t="n">
         <v>-125208.3268936014</v>
       </c>
       <c r="J6" t="n">
-        <v>-215948.0208290259</v>
+        <v>-215948.0208290257</v>
       </c>
       <c r="K6" t="n">
-        <v>-132400.2791528869</v>
+        <v>-132400.2791528867</v>
       </c>
       <c r="L6" t="n">
-        <v>-193944.1123620392</v>
+        <v>-193944.1123620396</v>
       </c>
       <c r="M6" t="n">
-        <v>-273542.5376193683</v>
+        <v>-273542.5376193689</v>
       </c>
       <c r="N6" t="n">
-        <v>-123859.2266778619</v>
+        <v>-123859.226677862</v>
       </c>
       <c r="O6" t="n">
-        <v>-144314.714473475</v>
+        <v>-144314.7144734745</v>
       </c>
       <c r="P6" t="n">
         <v>-123859.2266778619</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26707,25 +26707,25 @@
         <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K2" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="O2" t="n">
         <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="F3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="G3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="H3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="I3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="J3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26802,34 @@
         <v>632.8664803414641</v>
       </c>
       <c r="G4" t="n">
+        <v>632.8664803414642</v>
+      </c>
+      <c r="H4" t="n">
         <v>632.8664803414641</v>
       </c>
-      <c r="H4" t="n">
-        <v>632.8664803414642</v>
-      </c>
       <c r="I4" t="n">
-        <v>632.8664803414639</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207869</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828736</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828736</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828736</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828736</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144064</v>
+        <v>76.92979151144065</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451559</v>
+        <v>25.56935974451551</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144065</v>
+        <v>76.92979151144054</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691738</v>
+        <v>50.08760471691762</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451574</v>
+        <v>25.56935974451565</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793227</v>
+        <v>241.1377821793228</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144064</v>
+        <v>76.92979151144065</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451559</v>
+        <v>25.56935974451551</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855176</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855176</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S17" t="n">
         <v>165.9269238499924</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.181721801112872e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>165.9269238499924</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.90873918222375</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512687</v>
@@ -28773,7 +28773,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334051</v>
       </c>
       <c r="U19" t="n">
         <v>165.9269238499924</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-3.907985046680551e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,16 +29001,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
+        <v>9.964971103333852</v>
+      </c>
+      <c r="T22" t="n">
         <v>165.9269238499924</v>
-      </c>
-      <c r="T22" t="n">
-        <v>9.964971103334051</v>
       </c>
       <c r="U22" t="n">
         <v>165.9269238499924</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
@@ -29247,7 +29247,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
-        <v>9.964971103334051</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U25" t="n">
         <v>165.9269238499924</v>
@@ -29262,7 +29262,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103333909</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102033765</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1485704102017849</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559583</v>
       </c>
       <c r="L28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1485704102016996</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
         <v>102.4991512559563</v>
@@ -29542,7 +29542,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102010459</v>
       </c>
       <c r="N29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1485704102011027</v>
+        <v>0.1485704102024101</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559587</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559555</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I37" t="n">
-        <v>133.8911448991026</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3701265538906</v>
+        <v>22.85329018776281</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150.9847631111485</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R40" t="n">
-        <v>137.1599022512687</v>
+        <v>117.6430658851425</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728738</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>22.85329018776241</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R43" t="n">
-        <v>137.1599022512687</v>
+        <v>117.643065885141</v>
       </c>
       <c r="S43" t="n">
         <v>152.5867559728738</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R46" t="n">
-        <v>135.5579093895424</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067467</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K12" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K15" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S17" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K18" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R19" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S20" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K21" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S23" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K24" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S26" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K27" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R28" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K30" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J31" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K33" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K36" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K39" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K42" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K45" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054802</v>
+        <v>238.9998570709637</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M11" t="n">
-        <v>301.2613619200918</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P11" t="n">
         <v>307.938267249927</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L12" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>373.1787643071299</v>
+        <v>94.82069326434697</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1628128732074</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466114</v>
+        <v>46.62700578466118</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391236</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526329</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415035</v>
+        <v>71.0822888341504</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K14" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L14" t="n">
-        <v>245.8679803873498</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M14" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200904</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P14" t="n">
         <v>307.938267249927</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
@@ -35732,16 +35732,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>94.82069326434639</v>
+        <v>182.9187478921518</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q15" t="n">
         <v>196.1628128732074</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466121</v>
+        <v>46.62700578466118</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391236</v>
       </c>
       <c r="L16" t="n">
         <v>226.5511725703756</v>
@@ -35823,7 +35823,7 @@
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415042</v>
+        <v>71.0822888341504</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054802</v>
+        <v>238.9998570709637</v>
       </c>
       <c r="L17" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M17" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P17" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.46734621600444</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3491984164254</v>
+        <v>407.5120112896331</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O19" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200918</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954908</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>278.3580710427827</v>
@@ -36209,13 +36209,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>123.2511437886199</v>
+        <v>211.349198416425</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q21" t="n">
         <v>196.1628128732074</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O22" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M23" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P23" t="n">
-        <v>307.938267249927</v>
+        <v>270.9518165092109</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.46734621600352</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K24" t="n">
         <v>278.3580710427827</v>
@@ -36443,16 +36443,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>562.9739572239781</v>
+        <v>94.82069326434605</v>
       </c>
       <c r="N24" t="n">
-        <v>123.251143788619</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q24" t="n">
         <v>196.1628128732074</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O25" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887902</v>
       </c>
       <c r="M26" t="n">
-        <v>491.9643148215296</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O26" t="n">
         <v>501.362394331679</v>
@@ -36616,7 +36616,7 @@
         <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004359</v>
+        <v>46.61117633004351</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
@@ -36683,13 +36683,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886192</v>
+        <v>211.3491984164245</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q27" t="n">
         <v>196.1628128732074</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206561</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565302</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877801</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M28" t="n">
         <v>259.5684254873424</v>
       </c>
       <c r="N28" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700374</v>
       </c>
       <c r="O28" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685318</v>
       </c>
       <c r="P28" t="n">
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>118.6023673669217</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614366</v>
@@ -36838,19 +36838,19 @@
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>491.9643148215289</v>
       </c>
       <c r="N29" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O29" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064772</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R29" t="n">
         <v>46.61117633004359</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
@@ -36917,16 +36917,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M30" t="n">
-        <v>562.9739572239781</v>
+        <v>94.82069326434605</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886192</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q30" t="n">
         <v>196.1628128732074</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873425</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L32" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>491.9643148215289</v>
+        <v>491.9643148215303</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
         <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004361</v>
+        <v>46.61117633004348</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
@@ -37154,16 +37154,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M33" t="n">
-        <v>94.82069326434674</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q33" t="n">
         <v>196.1628128732074</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206572</v>
+        <v>60.12902470206558</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877801</v>
+        <v>240.0531914877825</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700367</v>
+        <v>259.1007979700374</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685318</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016305</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155493</v>
+        <v>84.5843077515548</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567204</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P35" t="n">
         <v>307.938267249927</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K36" t="n">
         <v>278.3580710427827</v>
@@ -37391,19 +37391,19 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
-        <v>94.82069326434593</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546763</v>
+        <v>88.20404466825144</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567204</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
@@ -37637,7 +37637,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q39" t="n">
         <v>196.1628128732074</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K42" t="n">
         <v>278.3580710427827</v>
@@ -37865,16 +37865,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M42" t="n">
-        <v>94.82069326434593</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q42" t="n">
         <v>196.1628128732074</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M44" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P44" t="n">
         <v>307.938267249927</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L45" t="n">
-        <v>330.4113330401934</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O45" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q45" t="n">
         <v>196.1628128732074</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
